--- a/REGULAR/CTO/GUAÑEZO, MA.GINA.xlsx
+++ b/REGULAR/CTO/GUAÑEZO, MA.GINA.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="364">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1140,6 +1140,15 @@
   </si>
   <si>
     <t>8/16,18/2023</t>
+  </si>
+  <si>
+    <t>11/3,6,7/2023</t>
+  </si>
+  <si>
+    <t>11/29,30/2023</t>
+  </si>
+  <si>
+    <t>12/4,5,11-15,18-20/2023</t>
   </si>
 </sst>
 </file>
@@ -2108,8 +2117,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K441" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K441"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K442" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K442"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2437,10 +2446,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K160"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A88" activePane="bottomLeft"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="4785" topLeftCell="A85" activePane="bottomLeft"/>
       <selection activeCell="W61" sqref="W61"/>
-      <selection pane="bottomLeft" activeCell="E107" sqref="E107"/>
+      <selection pane="bottomLeft" activeCell="N85" sqref="N85:N86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2605,7 +2614,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>66.835999999999999</v>
+        <v>68.085999999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2615,7 +2624,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>82.5</v>
+        <v>83.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4658,13 +4667,15 @@
         <v>45200</v>
       </c>
       <c r="B107" s="20"/>
-      <c r="C107" s="13"/>
+      <c r="C107" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D107" s="39"/>
       <c r="E107" s="9"/>
       <c r="F107" s="20"/>
-      <c r="G107" s="13" t="str">
+      <c r="G107" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+        <v>1.25</v>
       </c>
       <c r="H107" s="39"/>
       <c r="I107" s="9"/>
@@ -5659,12 +5670,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K441"/>
+  <dimension ref="A2:K442"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="88" zoomScaleNormal="120" zoomScaleSheetLayoutView="88" workbookViewId="0">
-      <pane ySplit="3210" topLeftCell="A418" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="106" workbookViewId="0">
+      <pane ySplit="4365" topLeftCell="A430" activePane="bottomLeft"/>
       <selection activeCell="O11" sqref="O11"/>
-      <selection pane="bottomLeft" activeCell="K439" sqref="K439"/>
+      <selection pane="bottomLeft" activeCell="G439" sqref="G439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5829,7 +5840,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>18.746000000000066</v>
+        <v>3.7460000000000662</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -14984,7 +14995,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
         <v>45170</v>
       </c>
@@ -15009,10 +15020,16 @@
       </c>
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A440" s="40"/>
-      <c r="B440" s="20"/>
+      <c r="A440" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B440" s="20" t="s">
+        <v>113</v>
+      </c>
       <c r="C440" s="13"/>
-      <c r="D440" s="39"/>
+      <c r="D440" s="39">
+        <v>3</v>
+      </c>
       <c r="E440" s="9"/>
       <c r="F440" s="20"/>
       <c r="G440" s="13" t="str">
@@ -15022,13 +15039,19 @@
       <c r="H440" s="39"/>
       <c r="I440" s="9"/>
       <c r="J440" s="11"/>
-      <c r="K440" s="20"/>
+      <c r="K440" s="20" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="41"/>
-      <c r="B441" s="15"/>
+      <c r="B441" s="15" t="s">
+        <v>219</v>
+      </c>
       <c r="C441" s="42"/>
-      <c r="D441" s="43"/>
+      <c r="D441" s="43">
+        <v>2</v>
+      </c>
       <c r="E441" s="9"/>
       <c r="F441" s="15"/>
       <c r="G441" s="42" t="str">
@@ -15038,21 +15061,42 @@
       <c r="H441" s="43"/>
       <c r="I441" s="9"/>
       <c r="J441" s="12"/>
-      <c r="K441" s="15"/>
+      <c r="K441" s="15" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A442" s="40"/>
+      <c r="B442" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="C442" s="13"/>
+      <c r="D442" s="43">
+        <v>10</v>
+      </c>
+      <c r="E442" s="9"/>
+      <c r="F442" s="20"/>
+      <c r="G442" s="13"/>
+      <c r="H442" s="39"/>
+      <c r="I442" s="9"/>
+      <c r="J442" s="11"/>
+      <c r="K442" s="20" t="s">
+        <v>363</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
